--- a/materials.xlsx
+++ b/materials.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mats" sheetId="1" r:id="rId1"/>
     <sheet name="effects" sheetId="2" r:id="rId2"/>
+    <sheet name="items" sheetId="3" r:id="rId3"/>
+    <sheet name="recipes" sheetId="4" r:id="rId4"/>
+    <sheet name="recipe_reqs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>WOOD</t>
   </si>
@@ -256,13 +259,61 @@
   </si>
   <si>
     <t>BODY</t>
+  </si>
+  <si>
+    <t>Hide Armor</t>
+  </si>
+  <si>
+    <t>NECK</t>
+  </si>
+  <si>
+    <t>Gold Amulet</t>
+  </si>
+  <si>
+    <t>Silver Amulet</t>
+  </si>
+  <si>
+    <t>RING</t>
+  </si>
+  <si>
+    <t>Brass Ring</t>
+  </si>
+  <si>
+    <t>LEFT_HAND</t>
+  </si>
+  <si>
+    <t>Quarterstaff</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>Bronze Sword</t>
+  </si>
+  <si>
+    <t>Copper Sword</t>
+  </si>
+  <si>
+    <t>extra cap</t>
+  </si>
+  <si>
+    <t>itemname</t>
+  </si>
+  <si>
+    <t>material name</t>
+  </si>
+  <si>
+    <t>recipe item name</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +331,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -304,12 +362,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,12 +655,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1383,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,8 +1488,8 @@
         <v>76</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='"&amp;A2&amp;"'), '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"' )"</f>
-        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Pine'), 'ADDED_PIERCING_RESIST', '2', 'BODY' )</v>
+        <f>"INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='"&amp;A2&amp;"'), '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"' );"</f>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Pine'), 'ADDED_PIERCING_RESIST', '2', 'BODY' );</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,323 +1502,813 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">"INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='"&amp;A3&amp;"'), '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"' );"</f>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Pine'), 'LESS_FIRE_RESIST', '2', 'BODY' );</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Fir'), 'ADDED_PIERCING_RESIST', '5', 'BODY' );</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Fir'), 'LESS_FIRE_RESIST', '5', 'BODY' );</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Yew'), 'ADDED_PIERCING_RESIST', '10', 'BODY' );</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `material_effect` (material_id, type, val, slot) VALUES ( (SELECT `id` FROM `material` WHERE `name`='Yew'), 'LESS_FIRE_RESIST', '10', 'BODY' );</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A1&amp;"', '"&amp;B1&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Copper Sword', 'LEFT_HAND');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Bronze Sword', 'LEFT_HAND');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A3&amp;"', '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Iron Sword', 'LEFT_HAND');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A5&amp;"', '"&amp;B5&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Quarterstaff', 'LEFT_HAND');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A7&amp;"', '"&amp;B7&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Brass Ring', 'RING');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A9&amp;"', '"&amp;B9&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Silver Amulet', 'NECK');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A10&amp;"', '"&amp;B10&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Gold Amulet', 'NECK');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f>"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A12&amp;"', '"&amp;B12&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Hide Armor', 'BODY');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="105.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A2&amp;"'), '"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Copper Sword'), '10');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A3&amp;"'), '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Bronze Sword'), '15');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A4&amp;"'), '"&amp;B4&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Iron Sword'), '20');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A6&amp;"'), '"&amp;B6&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Quarterstaff'), '10');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A8&amp;"'), '"&amp;B8&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Brass Ring'), '7');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A10&amp;"'), '"&amp;B10&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Silver Amulet'), '5');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A11&amp;"'), '"&amp;B11&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Gold Amulet'), '10');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A13&amp;"'), '"&amp;B13&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Hide Armor'), '15');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F2:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="96.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = '"&amp;A2&amp;"'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = '"&amp;B2&amp;"'), '"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Copper'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Copper Sword'), '3');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F14" si="0">"INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = '"&amp;A3&amp;"'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = '"&amp;B3&amp;"'), '"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Copper'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Bronze Sword'), '2');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Tin'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Bronze Sword'), '2');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Iron'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Iron Sword'), '5');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Pine'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Quarterstaff'), '4');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Brass'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Brass Ring'), '2');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Silver'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Silver Amulet'), '2');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Gold'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Gold Amulet'), '3');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Rawhide'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Hide Armor'), '5');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/materials.xlsx
+++ b/materials.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>WOOD</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>Grimoire</t>
+  </si>
+  <si>
+    <t>Paper</t>
   </si>
 </sst>
 </file>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C64" si="0">"INSERT INTO `material` (name, material_type) VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"'); "</f>
+        <f t="shared" ref="C2:C65" si="0">"INSERT INTO `material` (name, material_type) VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"'); "</f>
         <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Fir', 'WOOD'); </v>
       </c>
     </row>
@@ -1436,6 +1442,18 @@
       <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Phosphorus', 'MISC'); </v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Paper', 'MISC'); </v>
       </c>
     </row>
   </sheetData>
@@ -1895,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,6 +2033,21 @@
         <v>INSERT INTO `item` (name, body_slot) VALUES ('Hide Armor', 'BODY');</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" ref="E13:E14" si="0">"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A14&amp;"', '"&amp;B14&amp;"');"</f>
+        <v>INSERT INTO `item` (name, body_slot) VALUES ('Grimoire', 'LEFT_HAND');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2023,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,6 +2172,18 @@
         <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Hide Armor'), '15');</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ref="C14:C15" si="0">"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A15&amp;"'), '"&amp;B15&amp;"');"</f>
+        <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Grimoire'), '7');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2147,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F2:F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F14" si="0">"INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = '"&amp;A3&amp;"'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = '"&amp;B3&amp;"'), '"&amp;C3&amp;"');"</f>
+        <f t="shared" ref="F3:F16" si="0">"INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = '"&amp;A3&amp;"'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = '"&amp;B3&amp;"'), '"&amp;C3&amp;"');"</f>
         <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Copper'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Bronze Sword'), '2');</v>
       </c>
     </row>
@@ -2305,6 +2350,21 @@
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Rawhide'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Hide Armor'), '5');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `recipe_requirement` (`material_id`, `recipe_id`, `quantity`) VALUES ( (SELECT id FROM `material` WHERE name = 'Paper'), (SELECT r.id FROM `recipe` r JOIN `item` i ON r.item_id = i.id WHERE i.name = 'Grimoire'), '10');</v>
       </c>
     </row>
   </sheetData>

--- a/materials.xlsx
+++ b/materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="mats" sheetId="1" r:id="rId1"/>
@@ -659,801 +659,996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D65" sqref="D1:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="str">
-        <f>"INSERT INTO `material` (name, material_type) VALUES ('"&amp;A1&amp;"', '"&amp;B1&amp;"'); "</f>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Pine', 'WOOD'); </v>
+      <c r="C1">
+        <v>1</v>
       </c>
       <c r="D1" t="str">
+        <f>"INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('"&amp;A1&amp;"', '"&amp;B1&amp;"', "&amp;C1&amp;"); "</f>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Pine', 'WOOD', 1); </v>
+      </c>
+      <c r="E1" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">"INSERT INTO `material` (name, material_type) VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"'); "</f>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Fir', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">"INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"', "&amp;C2&amp;"); "</f>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Fir', 'WOOD', 2); </v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Yew', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Yew', 'WOOD', 3); </v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Spruce', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Spruce', 'WOOD', 4); </v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Ash', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Ash', 'WOOD', 5); </v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Walnut', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Walnut', 'WOOD', 6); </v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Cherry', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Cherry', 'WOOD', 7); </v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Blackwood', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Blackwood', 'WOOD', 8); </v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Sandalwood', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Sandalwood', 'WOOD', 9); </v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Ironwood', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Ironwood', 'WOOD', 10); </v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Kingwood', 'WOOD'); </v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Kingwood', 'WOOD', 11); </v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Iron', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Iron', 'METAL', 1); </v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Tin', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Tin', 'METAL', 2); </v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Bronze', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Bronze', 'METAL', 3); </v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Copper', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Copper', 'METAL', 4); </v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Lead', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Lead', 'METAL', 5); </v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Gold', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Gold', 'METAL', 6); </v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Silver', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Silver', 'METAL', 7); </v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Zinc', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Zinc', 'METAL', 8); </v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Quiksilver', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Quiksilver', 'METAL', 9); </v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Brass', 'METAL'); </v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Brass', 'METAL', 10); </v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Fleece', 'HIDE'); </v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Fleece', 'HIDE', 1); </v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Wool', 'HIDE'); </v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Wool', 'HIDE', 2); </v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Fur', 'HIDE'); </v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Fur', 'HIDE', 3); </v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Rawhide', 'HIDE'); </v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Rawhide', 'HIDE', 4); </v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Leather', 'HIDE'); </v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Leather', 'HIDE', 5); </v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Burlap', 'CLOTH'); </v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Burlap', 'CLOTH', 1); </v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Flax', 'CLOTH'); </v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Flax', 'CLOTH', 2); </v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Jute', 'CLOTH'); </v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Jute', 'CLOTH', 3); </v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Cotton', 'CLOTH'); </v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Cotton', 'CLOTH', 4); </v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Silk', 'CLOTH'); </v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Silk', 'CLOTH', 5); </v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Diamond', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Diamond', 'GEM', 1); </v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Amythest', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Amythest', 'GEM', 1); </v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Aquamarine', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Aquamarine', 'GEM', 1); </v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Beryl', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Beryl', 'GEM', 2); </v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Emerald', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Emerald', 'GEM', 2); </v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Citrine', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Citrine', 'GEM', 2); </v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Ruby', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Ruby', 'GEM', 3); </v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Sapphire', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Sapphire', 'GEM', 3); </v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Feldspar', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Feldspar', 'GEM', 3); </v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Moonstone', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Moonstone', 'GEM', 4); </v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Sunstone', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Sunstone', 'GEM', 4); </v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Garnet', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Garnet', 'GEM', 4); </v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Topaz', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Topaz', 'GEM', 5); </v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Hematite', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Hematite', 'GEM', 5); </v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Jasper', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Jasper', 'GEM', 5); </v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Lapis Lazuli', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Lapis Lazuli', 'GEM', 6); </v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Opal', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Opal', 'GEM', 6); </v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Quartz', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Quartz', 'GEM', 6); </v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Flint', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Flint', 'GEM', 7); </v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Tourmaline', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Tourmaline', 'GEM', 7); </v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Turquoise', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Turquoise', 'GEM', 7); </v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Jet', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Jet', 'GEM', 8); </v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Coral', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Coral', 'GEM', 8); </v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Pearl', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Pearl', 'GEM', 8); </v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Obsidian', 'GEM'); </v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Obsidian', 'GEM', 9); </v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Amber', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Amber', 'MISC', 1); </v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Bone', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Bone', 'MISC', 2); </v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Tar', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Tar', 'MISC', 3); </v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Saltpeter', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Saltpeter', 'MISC', 4); </v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Sulfur', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Sulfur', 'MISC', 5); </v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Clay', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Clay', 'MISC', 6); </v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Charcoal', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Charcoal', 'MISC', 7); </v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Phosphorus', 'MISC'); </v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Phosphorus', 'MISC', 8); </v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">INSERT INTO `material` (name, material_type) VALUES ('Paper', 'MISC'); </v>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INSERT INTO `material` (name, material_type, capacity_requirement) VALUES ('Paper', 'MISC', 9); </v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2239,7 @@
         <v>83</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" ref="E13:E14" si="0">"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A14&amp;"', '"&amp;B14&amp;"');"</f>
+        <f t="shared" ref="E14" si="0">"INSERT INTO `item` (name, body_slot) VALUES ('"&amp;A14&amp;"', '"&amp;B14&amp;"');"</f>
         <v>INSERT INTO `item` (name, body_slot) VALUES ('Grimoire', 'LEFT_HAND');</v>
       </c>
     </row>
@@ -2180,7 +2375,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C14:C15" si="0">"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A15&amp;"'), '"&amp;B15&amp;"');"</f>
+        <f t="shared" ref="C15" si="0">"INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = '"&amp;A15&amp;"'), '"&amp;B15&amp;"');"</f>
         <v>INSERT INTO `recipe` (item_id, extra_capacity) VALUES ( (SELECT id FROM item WHERE name = 'Grimoire'), '7');</v>
       </c>
     </row>
@@ -2194,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
